--- a/natmiOut/OldD4/LR-pairs_lrc2p/Plau-Lrp1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Plau-Lrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.0642349815482</v>
+        <v>25.30602766666667</v>
       </c>
       <c r="H2">
-        <v>14.0642349815482</v>
+        <v>75.918083</v>
       </c>
       <c r="I2">
-        <v>0.07506808969358612</v>
+        <v>0.1185131313031909</v>
       </c>
       <c r="J2">
-        <v>0.07506808969358612</v>
+        <v>0.1222333681589157</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N2">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O2">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P2">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q2">
-        <v>47.24320349635876</v>
+        <v>99.87465830599911</v>
       </c>
       <c r="R2">
-        <v>47.24320349635876</v>
+        <v>898.8719247539919</v>
       </c>
       <c r="S2">
-        <v>0.0005358016435573132</v>
+        <v>0.0009578572412300814</v>
       </c>
       <c r="T2">
-        <v>0.0005358016435573132</v>
+        <v>0.001016698472856658</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.0642349815482</v>
+        <v>25.30602766666667</v>
       </c>
       <c r="H3">
-        <v>14.0642349815482</v>
+        <v>75.918083</v>
       </c>
       <c r="I3">
-        <v>0.07506808969358612</v>
+        <v>0.1185131313031909</v>
       </c>
       <c r="J3">
-        <v>0.07506808969358612</v>
+        <v>0.1222333681589157</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N3">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P3">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q3">
-        <v>2461.688049892612</v>
+        <v>4701.929388641926</v>
       </c>
       <c r="R3">
-        <v>2461.688049892612</v>
+        <v>42317.36449777734</v>
       </c>
       <c r="S3">
-        <v>0.02791886251235096</v>
+        <v>0.04509429307747301</v>
       </c>
       <c r="T3">
-        <v>0.02791886251235096</v>
+        <v>0.04786443838701917</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.0642349815482</v>
+        <v>25.30602766666667</v>
       </c>
       <c r="H4">
-        <v>14.0642349815482</v>
+        <v>75.918083</v>
       </c>
       <c r="I4">
-        <v>0.07506808969358612</v>
+        <v>0.1185131313031909</v>
       </c>
       <c r="J4">
-        <v>0.07506808969358612</v>
+        <v>0.1222333681589157</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N4">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O4">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P4">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q4">
-        <v>1625.408002296445</v>
+        <v>2969.394718570073</v>
       </c>
       <c r="R4">
-        <v>1625.408002296445</v>
+        <v>26724.55246713066</v>
       </c>
       <c r="S4">
-        <v>0.01843431889941096</v>
+        <v>0.02847825746285292</v>
       </c>
       <c r="T4">
-        <v>0.01843431889941096</v>
+        <v>0.03022767864125429</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.0642349815482</v>
+        <v>25.30602766666667</v>
       </c>
       <c r="H5">
-        <v>14.0642349815482</v>
+        <v>75.918083</v>
       </c>
       <c r="I5">
-        <v>0.07506808969358612</v>
+        <v>0.1185131313031909</v>
       </c>
       <c r="J5">
-        <v>0.07506808969358612</v>
+        <v>0.1222333681589157</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N5">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O5">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P5">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q5">
-        <v>1907.859952316879</v>
+        <v>3536.875505755548</v>
       </c>
       <c r="R5">
-        <v>1907.859952316879</v>
+        <v>31831.87955179993</v>
       </c>
       <c r="S5">
-        <v>0.02163770494960929</v>
+        <v>0.03392073496900027</v>
       </c>
       <c r="T5">
-        <v>0.02163770494960929</v>
+        <v>0.03600448788889414</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.0642349815482</v>
+        <v>25.30602766666667</v>
       </c>
       <c r="H6">
-        <v>14.0642349815482</v>
+        <v>75.918083</v>
       </c>
       <c r="I6">
-        <v>0.07506808969358612</v>
+        <v>0.1185131313031909</v>
       </c>
       <c r="J6">
-        <v>0.07506808969358612</v>
+        <v>0.1222333681589157</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N6">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O6">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P6">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q6">
-        <v>576.7745859772062</v>
+        <v>1049.151820664547</v>
       </c>
       <c r="R6">
-        <v>576.7745859772062</v>
+        <v>6294.910923987283</v>
       </c>
       <c r="S6">
-        <v>0.006541401688657602</v>
+        <v>0.01006198855263465</v>
       </c>
       <c r="T6">
-        <v>0.006541401688657602</v>
+        <v>0.007120064768891474</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>61.3255803135444</v>
+        <v>65.56997533333333</v>
       </c>
       <c r="H7">
-        <v>61.3255803135444</v>
+        <v>196.709926</v>
       </c>
       <c r="I7">
-        <v>0.3273263117068315</v>
+        <v>0.307077159583692</v>
       </c>
       <c r="J7">
-        <v>0.3273263117068315</v>
+        <v>0.3167165957716697</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N7">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O7">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P7">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q7">
-        <v>205.9988953601899</v>
+        <v>258.7833605420249</v>
       </c>
       <c r="R7">
-        <v>205.9988953601899</v>
+        <v>2329.050244878224</v>
       </c>
       <c r="S7">
-        <v>0.002336305299734549</v>
+        <v>0.002481885996000893</v>
       </c>
       <c r="T7">
-        <v>0.002336305299734549</v>
+        <v>0.002634348411562845</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>61.3255803135444</v>
+        <v>65.56997533333333</v>
       </c>
       <c r="H8">
-        <v>61.3255803135444</v>
+        <v>196.709926</v>
       </c>
       <c r="I8">
-        <v>0.3273263117068315</v>
+        <v>0.307077159583692</v>
       </c>
       <c r="J8">
-        <v>0.3273263117068315</v>
+        <v>0.3167165957716697</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N8">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P8">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q8">
-        <v>10733.92533675967</v>
+        <v>12183.08136280231</v>
       </c>
       <c r="R8">
-        <v>10733.92533675967</v>
+        <v>109647.7322652208</v>
       </c>
       <c r="S8">
-        <v>0.1217371899367618</v>
+        <v>0.1168429800090188</v>
       </c>
       <c r="T8">
-        <v>0.1217371899367618</v>
+        <v>0.1240206517483075</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>61.3255803135444</v>
+        <v>65.56997533333333</v>
       </c>
       <c r="H9">
-        <v>61.3255803135444</v>
+        <v>196.709926</v>
       </c>
       <c r="I9">
-        <v>0.3273263117068315</v>
+        <v>0.307077159583692</v>
       </c>
       <c r="J9">
-        <v>0.3273263117068315</v>
+        <v>0.3167165957716697</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N9">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O9">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P9">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q9">
-        <v>7087.416352036496</v>
+        <v>7693.9431591642</v>
       </c>
       <c r="R9">
-        <v>7087.416352036496</v>
+        <v>69245.4884324778</v>
       </c>
       <c r="S9">
-        <v>0.08038086008051543</v>
+        <v>0.07378948067124858</v>
       </c>
       <c r="T9">
-        <v>0.08038086008051543</v>
+        <v>0.07832237319102107</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.3255803135444</v>
+        <v>65.56997533333333</v>
       </c>
       <c r="H10">
-        <v>61.3255803135444</v>
+        <v>196.709926</v>
       </c>
       <c r="I10">
-        <v>0.3273263117068315</v>
+        <v>0.307077159583692</v>
       </c>
       <c r="J10">
-        <v>0.3273263117068315</v>
+        <v>0.3167165957716697</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N10">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O10">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P10">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q10">
-        <v>8319.017627784562</v>
+        <v>9164.332020980908</v>
       </c>
       <c r="R10">
-        <v>8319.017627784562</v>
+        <v>82478.98818882818</v>
       </c>
       <c r="S10">
-        <v>0.094348879582071</v>
+        <v>0.0878913824209399</v>
       </c>
       <c r="T10">
-        <v>0.094348879582071</v>
+        <v>0.0932905556676433</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>61.3255803135444</v>
+        <v>65.56997533333333</v>
       </c>
       <c r="H11">
-        <v>61.3255803135444</v>
+        <v>196.709926</v>
       </c>
       <c r="I11">
-        <v>0.3273263117068315</v>
+        <v>0.307077159583692</v>
       </c>
       <c r="J11">
-        <v>0.3273263117068315</v>
+        <v>0.3167165957716697</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N11">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O11">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P11">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q11">
-        <v>2514.963397693659</v>
+        <v>2718.437674535175</v>
       </c>
       <c r="R11">
-        <v>2514.963397693659</v>
+        <v>16310.62604721105</v>
       </c>
       <c r="S11">
-        <v>0.02852307680774879</v>
+        <v>0.02607143048648383</v>
       </c>
       <c r="T11">
-        <v>0.02852307680774879</v>
+        <v>0.01844866675313507</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>44.5908202137173</v>
+        <v>52.84352933333334</v>
       </c>
       <c r="H12">
-        <v>44.5908202137173</v>
+        <v>158.530588</v>
       </c>
       <c r="I12">
-        <v>0.2380042494814336</v>
+        <v>0.2474766965759142</v>
       </c>
       <c r="J12">
-        <v>0.2380042494814336</v>
+        <v>0.2552452190797994</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N12">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O12">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P12">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q12">
-        <v>149.7851249065448</v>
+        <v>208.5562185171236</v>
       </c>
       <c r="R12">
-        <v>149.7851249065448</v>
+        <v>1877.005966654112</v>
       </c>
       <c r="S12">
-        <v>0.001698765328467824</v>
+        <v>0.002000177897962238</v>
       </c>
       <c r="T12">
-        <v>0.001698765328467824</v>
+        <v>0.002123048954234897</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>44.5908202137173</v>
+        <v>52.84352933333334</v>
       </c>
       <c r="H13">
-        <v>44.5908202137173</v>
+        <v>158.530588</v>
       </c>
       <c r="I13">
-        <v>0.2380042494814336</v>
+        <v>0.2474766965759142</v>
       </c>
       <c r="J13">
-        <v>0.2380042494814336</v>
+        <v>0.2552452190797994</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N13">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P13">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q13">
-        <v>7804.810528196565</v>
+        <v>9818.472770392334</v>
       </c>
       <c r="R13">
-        <v>7804.810528196565</v>
+        <v>88366.25493353102</v>
       </c>
       <c r="S13">
-        <v>0.08851707757251161</v>
+        <v>0.09416498039098442</v>
       </c>
       <c r="T13">
-        <v>0.08851707757251161</v>
+        <v>0.09994954116246484</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>44.5908202137173</v>
+        <v>52.84352933333334</v>
       </c>
       <c r="H14">
-        <v>44.5908202137173</v>
+        <v>158.530588</v>
       </c>
       <c r="I14">
-        <v>0.2380042494814336</v>
+        <v>0.2474766965759142</v>
       </c>
       <c r="J14">
-        <v>0.2380042494814336</v>
+        <v>0.2552452190797994</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N14">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O14">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P14">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q14">
-        <v>5153.374932900882</v>
+        <v>6200.629311714949</v>
       </c>
       <c r="R14">
-        <v>5153.374932900882</v>
+        <v>55805.66380543454</v>
       </c>
       <c r="S14">
-        <v>0.05844622198679155</v>
+        <v>0.05946771470509157</v>
       </c>
       <c r="T14">
-        <v>0.05844622198679155</v>
+        <v>0.06312082022504552</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>44.5908202137173</v>
+        <v>52.84352933333334</v>
       </c>
       <c r="H15">
-        <v>44.5908202137173</v>
+        <v>158.530588</v>
       </c>
       <c r="I15">
-        <v>0.2380042494814336</v>
+        <v>0.2474766965759142</v>
       </c>
       <c r="J15">
-        <v>0.2380042494814336</v>
+        <v>0.2552452190797994</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N15">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O15">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P15">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q15">
-        <v>6048.892118080093</v>
+        <v>7385.631083574969</v>
       </c>
       <c r="R15">
-        <v>6048.892118080093</v>
+        <v>66470.67975217472</v>
       </c>
       <c r="S15">
-        <v>0.06860259463179691</v>
+        <v>0.07083258490638884</v>
       </c>
       <c r="T15">
-        <v>0.06860259463179691</v>
+        <v>0.07518383513010028</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>44.5908202137173</v>
+        <v>52.84352933333334</v>
       </c>
       <c r="H16">
-        <v>44.5908202137173</v>
+        <v>158.530588</v>
       </c>
       <c r="I16">
-        <v>0.2380042494814336</v>
+        <v>0.2474766965759142</v>
       </c>
       <c r="J16">
-        <v>0.2380042494814336</v>
+        <v>0.2552452190797994</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N16">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O16">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P16">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q16">
-        <v>1828.670517869838</v>
+        <v>2190.817371287171</v>
       </c>
       <c r="R16">
-        <v>1828.670517869838</v>
+        <v>13144.90422772303</v>
       </c>
       <c r="S16">
-        <v>0.02073958996186573</v>
+        <v>0.02101123867548711</v>
       </c>
       <c r="T16">
-        <v>0.02073958996186573</v>
+        <v>0.01486797360795385</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>49.0585253820883</v>
+        <v>50.313151</v>
       </c>
       <c r="H17">
-        <v>49.0585253820883</v>
+        <v>150.939453</v>
       </c>
       <c r="I17">
-        <v>0.2618507006210641</v>
+        <v>0.235626434511272</v>
       </c>
       <c r="J17">
-        <v>0.2618507006210641</v>
+        <v>0.2430229663235089</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N17">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O17">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P17">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q17">
-        <v>164.7926034297634</v>
+        <v>198.5696384518747</v>
       </c>
       <c r="R17">
-        <v>164.7926034297634</v>
+        <v>1787.126746066872</v>
       </c>
       <c r="S17">
-        <v>0.001868970375189759</v>
+        <v>0.00190440066885458</v>
       </c>
       <c r="T17">
-        <v>0.001868970375189759</v>
+        <v>0.002021388123813919</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>49.0585253820883</v>
+        <v>50.313151</v>
       </c>
       <c r="H18">
-        <v>49.0585253820883</v>
+        <v>150.939453</v>
       </c>
       <c r="I18">
-        <v>0.2618507006210641</v>
+        <v>0.235626434511272</v>
       </c>
       <c r="J18">
-        <v>0.2618507006210641</v>
+        <v>0.2430229663235089</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N18">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P18">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q18">
-        <v>8586.800905764308</v>
+        <v>9348.321531857393</v>
       </c>
       <c r="R18">
-        <v>8586.800905764308</v>
+        <v>84134.89378671654</v>
       </c>
       <c r="S18">
-        <v>0.09738590310800041</v>
+        <v>0.08965595101414063</v>
       </c>
       <c r="T18">
-        <v>0.09738590310800041</v>
+        <v>0.09516352182244743</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>49.0585253820883</v>
+        <v>50.313151</v>
       </c>
       <c r="H19">
-        <v>49.0585253820883</v>
+        <v>150.939453</v>
       </c>
       <c r="I19">
-        <v>0.2618507006210641</v>
+        <v>0.235626434511272</v>
       </c>
       <c r="J19">
-        <v>0.2618507006210641</v>
+        <v>0.2430229663235089</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N19">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O19">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P19">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q19">
-        <v>5669.709005966264</v>
+        <v>5903.716174736074</v>
       </c>
       <c r="R19">
-        <v>5669.709005966264</v>
+        <v>53133.44557262467</v>
       </c>
       <c r="S19">
-        <v>0.06430214674418858</v>
+        <v>0.05662014152591534</v>
       </c>
       <c r="T19">
-        <v>0.06430214674418858</v>
+        <v>0.06009832044324283</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>49.0585253820883</v>
+        <v>50.313151</v>
       </c>
       <c r="H20">
-        <v>49.0585253820883</v>
+        <v>150.939453</v>
       </c>
       <c r="I20">
-        <v>0.2618507006210641</v>
+        <v>0.235626434511272</v>
       </c>
       <c r="J20">
-        <v>0.2618507006210641</v>
+        <v>0.2430229663235089</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N20">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O20">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P20">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q20">
-        <v>6654.951088274849</v>
+        <v>7031.974900734001</v>
       </c>
       <c r="R20">
-        <v>6654.951088274849</v>
+        <v>63287.77410660602</v>
       </c>
       <c r="S20">
-        <v>0.07547612073271068</v>
+        <v>0.06744081224467789</v>
       </c>
       <c r="T20">
-        <v>0.07547612073271068</v>
+        <v>0.07158370565672485</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>49.0585253820883</v>
+        <v>50.313151</v>
       </c>
       <c r="H21">
-        <v>49.0585253820883</v>
+        <v>150.939453</v>
       </c>
       <c r="I21">
-        <v>0.2618507006210641</v>
+        <v>0.235626434511272</v>
       </c>
       <c r="J21">
-        <v>0.2618507006210641</v>
+        <v>0.2430229663235089</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N21">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O21">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P21">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q21">
-        <v>2011.891205104953</v>
+        <v>2085.911493906674</v>
       </c>
       <c r="R21">
-        <v>2011.891205104953</v>
+        <v>12515.46896344004</v>
       </c>
       <c r="S21">
-        <v>0.02281755966097475</v>
+        <v>0.02000512905768361</v>
       </c>
       <c r="T21">
-        <v>0.02281755966097475</v>
+        <v>0.01415603027727993</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.3138813798692</v>
+        <v>19.496631</v>
       </c>
       <c r="H22">
-        <v>18.3138813798692</v>
+        <v>38.993262</v>
       </c>
       <c r="I22">
-        <v>0.09775064849708451</v>
+        <v>0.09130657802593077</v>
       </c>
       <c r="J22">
-        <v>0.09775064849708451</v>
+        <v>0.06278185066610624</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N22">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O22">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P22">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q22">
-        <v>61.51820031252733</v>
+        <v>76.94685965304799</v>
       </c>
       <c r="R22">
-        <v>61.51820031252733</v>
+        <v>461.681157918288</v>
       </c>
       <c r="S22">
-        <v>0.0006976993598387256</v>
+        <v>0.0007379660462293635</v>
       </c>
       <c r="T22">
-        <v>0.0006976993598387256</v>
+        <v>0.0005221995651167794</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.3138813798692</v>
+        <v>19.496631</v>
       </c>
       <c r="H23">
-        <v>18.3138813798692</v>
+        <v>38.993262</v>
       </c>
       <c r="I23">
-        <v>0.09775064849708451</v>
+        <v>0.09130657802593077</v>
       </c>
       <c r="J23">
-        <v>0.09775064849708451</v>
+        <v>0.06278185066610624</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N23">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O23">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P23">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q23">
-        <v>3205.511213309667</v>
+        <v>3622.527545054341</v>
       </c>
       <c r="R23">
-        <v>3205.511213309667</v>
+        <v>21735.16527032605</v>
       </c>
       <c r="S23">
-        <v>0.03635482036405709</v>
+        <v>0.03474218885389976</v>
       </c>
       <c r="T23">
-        <v>0.03635482036405709</v>
+        <v>0.02458426915900782</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.3138813798692</v>
+        <v>19.496631</v>
       </c>
       <c r="H24">
-        <v>18.3138813798692</v>
+        <v>38.993262</v>
       </c>
       <c r="I24">
-        <v>0.09775064849708451</v>
+        <v>0.09130657802593077</v>
       </c>
       <c r="J24">
-        <v>0.09775064849708451</v>
+        <v>0.06278185066610624</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N24">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O24">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P24">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q24">
-        <v>2116.540955622631</v>
+        <v>2287.723457979421</v>
       </c>
       <c r="R24">
-        <v>2116.540955622631</v>
+        <v>13726.34074787653</v>
       </c>
       <c r="S24">
-        <v>0.02400442897074873</v>
+        <v>0.02194062555331803</v>
       </c>
       <c r="T24">
-        <v>0.02400442897074873</v>
+        <v>0.01552562639009513</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.3138813798692</v>
+        <v>19.496631</v>
       </c>
       <c r="H25">
-        <v>18.3138813798692</v>
+        <v>38.993262</v>
       </c>
       <c r="I25">
-        <v>0.09775064849708451</v>
+        <v>0.09130657802593077</v>
       </c>
       <c r="J25">
-        <v>0.09775064849708451</v>
+        <v>0.06278185066610624</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N25">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O25">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P25">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q25">
-        <v>2484.338529751156</v>
+        <v>2724.930105070789</v>
       </c>
       <c r="R25">
-        <v>2484.338529751156</v>
+        <v>16349.58063042473</v>
       </c>
       <c r="S25">
-        <v>0.02817574950216962</v>
+        <v>0.02613369674808812</v>
       </c>
       <c r="T25">
-        <v>0.02817574950216962</v>
+        <v>0.01849272760782798</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>18.3138813798692</v>
+        <v>19.496631</v>
       </c>
       <c r="H26">
-        <v>18.3138813798692</v>
+        <v>38.993262</v>
       </c>
       <c r="I26">
-        <v>0.09775064849708451</v>
+        <v>0.09130657802593077</v>
       </c>
       <c r="J26">
-        <v>0.09775064849708451</v>
+        <v>0.06278185066610624</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N26">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O26">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P26">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q26">
-        <v>751.0526782557316</v>
+        <v>808.302519064194</v>
       </c>
       <c r="R26">
-        <v>751.0526782557316</v>
+        <v>3233.210076256776</v>
       </c>
       <c r="S26">
-        <v>0.00851795030027036</v>
+        <v>0.007752100824395495</v>
       </c>
       <c r="T26">
-        <v>0.00851795030027036</v>
+        <v>0.003657027944058528</v>
       </c>
     </row>
   </sheetData>
